--- a/data/trans_camb/P36B08_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>18.31274204926223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36.08471835972663</v>
+        <v>36.08471835972662</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.248226412755071</v>
@@ -655,7 +655,7 @@
         <v>6.385275467221208</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>24.66654248103294</v>
+        <v>24.66654248103292</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.372691660873727</v>
@@ -664,7 +664,7 @@
         <v>10.90274713255597</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>28.99236275586156</v>
+        <v>28.99236275586152</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9630605912798694</v>
+        <v>1.559532637935953</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>13.42110611954227</v>
+        <v>13.10815882963113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>30.9674234928446</v>
+        <v>31.70367695551435</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.114818459129816</v>
+        <v>-3.013582911260709</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.840332354426514</v>
+        <v>2.826537293251437</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.18772357983595</v>
+        <v>21.25698685518999</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8880227832557436</v>
+        <v>-0.5280861713137387</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>7.769586508216471</v>
+        <v>7.882428159179626</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>25.79907704789142</v>
+        <v>26.03960683889938</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.06497967620021</v>
+        <v>11.52486541574904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>23.25115279979287</v>
+        <v>23.01034172898919</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40.85425708247739</v>
+        <v>41.5325056789034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.57234668687682</v>
+        <v>5.549840677521862</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.82202657187519</v>
+        <v>10.68731805938045</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>28.20835880877575</v>
+        <v>27.891146187675</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.467462694922234</v>
+        <v>5.75271032894028</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>14.19811878188228</v>
+        <v>14.02238172877493</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>31.5643392192835</v>
+        <v>31.7904923592143</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.3234478568929166</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.6373444669640979</v>
+        <v>0.6373444669640976</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.01789241340077211</v>
@@ -760,7 +760,7 @@
         <v>0.09152825734969289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3535768597174761</v>
+        <v>0.3535768597174758</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.03668916604227802</v>
@@ -769,7 +769,7 @@
         <v>0.1685902582537904</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4483117754609799</v>
+        <v>0.4483117754609794</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.01618222069642393</v>
+        <v>0.02612050123580732</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2240386189485978</v>
+        <v>0.2167098030364049</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5127993842023244</v>
+        <v>0.5273247444491937</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04317031027952391</v>
+        <v>-0.04163001201794231</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03973646386953824</v>
+        <v>0.03908689583674715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2939948116763826</v>
+        <v>0.2940395146614483</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01348629556391835</v>
+        <v>-0.008283361412137627</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1141835331133084</v>
+        <v>0.11865760600954</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.3848922653224354</v>
+        <v>0.3868641426825216</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2065527338976518</v>
+        <v>0.217398334426137</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.445958872804569</v>
+        <v>0.4306613563236525</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.7735629071523893</v>
+        <v>0.798925669137412</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.0823276509455477</v>
+        <v>0.08350834928301833</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1609368248817081</v>
+        <v>0.1596436314700911</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4237273843783396</v>
+        <v>0.4159120100273243</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08649267443022596</v>
+        <v>0.09190071341825018</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2275578386894369</v>
+        <v>0.2253836271069269</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.5045601938267297</v>
+        <v>0.5094489363853568</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>5.992071545553479</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>28.90372901595949</v>
+        <v>28.9037290159595</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.343842749561829</v>
+        <v>3.704124280757107</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8098763279517673</v>
+        <v>0.9278660092960187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.11519130426316</v>
+        <v>29.21858839345067</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.393996088720515</v>
+        <v>6.221756521235324</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.553331767572075</v>
+        <v>2.741786001696196</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>22.36193741576409</v>
+        <v>22.61777354976223</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.066718995769309</v>
+        <v>6.669079559223796</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.487656442027309</v>
+        <v>3.2775973088921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>26.73684015708637</v>
+        <v>26.68427047349673</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.62849041205135</v>
+        <v>11.83947089510593</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.402776340717324</v>
+        <v>9.794657094393925</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.57707475472203</v>
+        <v>35.68997600871477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.85071771747151</v>
+        <v>13.81963041931732</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>10.42801225158626</v>
+        <v>10.23293782542733</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>28.31835689194033</v>
+        <v>28.43623058687646</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.69362996086983</v>
+        <v>11.96829745260788</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.739376219893972</v>
+        <v>8.902883058280946</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>31.20545733803721</v>
+        <v>31.20437105620596</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.08001097266213034</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5050929206815034</v>
+        <v>0.5050929206815031</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.139787592009101</v>
@@ -983,7 +983,7 @@
         <v>0.08871893058942647</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4279501519379206</v>
+        <v>0.4279501519379207</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05144202557788578</v>
+        <v>0.05403776857965011</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01139165775458197</v>
+        <v>0.0138923922008428</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4374641268045054</v>
+        <v>0.4393649128361532</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08830307607565581</v>
+        <v>0.08543203510714768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03519408987919363</v>
+        <v>0.03730171035749907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3019606039799265</v>
+        <v>0.3078595120781251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08870686951878426</v>
+        <v>0.09651429509547205</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0511295214776824</v>
+        <v>0.04768539478062687</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3854439571970482</v>
+        <v>0.3834020124850703</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1894784571663051</v>
+        <v>0.1900414690343171</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1507719336591137</v>
+        <v>0.1585453657690558</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5834724619587744</v>
+        <v>0.581469980026703</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2009896425391124</v>
+        <v>0.2006845839811864</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1521457077938438</v>
+        <v>0.1476174259231062</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4135830605356396</v>
+        <v>0.4178249411603105</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1765606334393211</v>
+        <v>0.1807187014470584</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1323965977774387</v>
+        <v>0.1338472186301174</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4773384443170581</v>
+        <v>0.4750230479507862</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>5.723955424488391</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>25.08595442165299</v>
+        <v>25.08595442165298</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>12.92650101513738</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.125286779280485</v>
+        <v>7.307727778034044</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.187146318571855</v>
+        <v>2.098553971574669</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24.42347475380924</v>
+        <v>24.28274516239286</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.7366349543652</v>
+        <v>10.66746566963115</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.638042196073811</v>
+        <v>1.165004242529918</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.76947607029054</v>
+        <v>21.97337529931153</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>10.0310136467863</v>
+        <v>10.00883912265675</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.93666087518399</v>
+        <v>3.213331022361959</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>24.14357901218175</v>
+        <v>24.07147128761568</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.55121987682721</v>
+        <v>15.20561802940165</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.76704997040581</v>
+        <v>11.07763458932006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31.20444023335426</v>
+        <v>31.02891789559963</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18.36373613079115</v>
+        <v>18.18677975011582</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.894790628388924</v>
+        <v>9.252789378379761</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.31268424732023</v>
+        <v>27.93864887314757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.6704419480987</v>
+        <v>15.5868287197968</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.385598414916165</v>
+        <v>9.238239310365543</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>29.07327690337388</v>
+        <v>28.67933027232942</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.08052723580758576</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3529207370358508</v>
+        <v>0.3529207370358506</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1900716948863179</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1058677566201384</v>
+        <v>0.1070815862304901</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0323871686840866</v>
+        <v>0.0311867432023793</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3595060876738346</v>
+        <v>0.3604772456231028</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1479992413290316</v>
+        <v>0.1451089777911068</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02322072462313973</v>
+        <v>0.01979321222050711</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2970954434421315</v>
+        <v>0.2978463256871927</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1451981396430171</v>
+        <v>0.1439557903925796</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.04355840347191357</v>
+        <v>0.04585305490099057</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3455191451555556</v>
+        <v>0.3435779896390159</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2494509066760176</v>
+        <v>0.2407630382013893</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1712490961195998</v>
+        <v>0.1743143919138917</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.49648108573903</v>
+        <v>0.4974613548939319</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2683802592635094</v>
+        <v>0.2640954087314594</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1426119527419561</v>
+        <v>0.1338392537025394</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4188185681838356</v>
+        <v>0.408814339695584</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2382925513019516</v>
+        <v>0.2352083061871858</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1415370053652097</v>
+        <v>0.1386170617416465</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4399371113096542</v>
+        <v>0.4310510925753344</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>7.125246791385653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29.15685490146856</v>
+        <v>29.15685490146854</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>11.10811546997882</v>
@@ -1297,7 +1297,7 @@
         <v>7.540755384424891</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.03463918348689</v>
+        <v>21.03463918348687</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.22712523083371</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.043862261826697</v>
+        <v>6.875567787837471</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.59463442442778</v>
+        <v>1.338948162086107</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>24.12991756558366</v>
+        <v>23.88765682077242</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.83160518954692</v>
+        <v>5.226902560592491</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.37926346329202</v>
+        <v>1.641965646823448</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.40179792817912</v>
+        <v>16.15816912520852</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>8.05561553376654</v>
+        <v>7.899806302888122</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.612822761003382</v>
+        <v>3.817439859328461</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>22.05879608747923</v>
+        <v>22.03830915025128</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.45101895752474</v>
+        <v>18.51887335379734</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.29209544037246</v>
+        <v>13.69881888925533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>34.02964674829876</v>
+        <v>33.86468693570302</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.87114677654058</v>
+        <v>17.01513059355711</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.75276706920985</v>
+        <v>13.24747741020483</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.28423737074518</v>
+        <v>25.82915310663767</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.93874402730076</v>
+        <v>16.69591086924383</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.07592478152437</v>
+        <v>12.72496359479664</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>28.89805192009031</v>
+        <v>29.18083835963867</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1087900497750548</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.4451741517009207</v>
+        <v>0.4451741517009205</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1492422164515762</v>
@@ -1402,7 +1402,7 @@
         <v>0.1013132290830313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2826092492904868</v>
+        <v>0.2826092492904865</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1762802611848706</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1027534451218395</v>
+        <v>0.1007863219565927</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02429570104053893</v>
+        <v>0.01982818478363221</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3444503004565608</v>
+        <v>0.344009953631484</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06381724522349218</v>
+        <v>0.06782935984015413</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02984888759248171</v>
+        <v>0.02104388397888154</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2071620795594399</v>
+        <v>0.2071260380626063</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1125439044053591</v>
+        <v>0.1088375099145229</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.04953367656847162</v>
+        <v>0.05297343095575114</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3042596216043121</v>
+        <v>0.3041721843229303</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3032873769367617</v>
+        <v>0.3000163307158401</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2161663283031594</v>
+        <v>0.2206832665132571</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5591552070189784</v>
+        <v>0.5489687067196858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2387916553855349</v>
+        <v>0.2415443719093668</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1957759765909586</v>
+        <v>0.1884610867596368</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3752231296887296</v>
+        <v>0.3717570805225655</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2566293886546174</v>
+        <v>0.2471196024813797</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1809884261511147</v>
+        <v>0.1905386434629884</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4345642016259264</v>
+        <v>0.4421647768270821</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>6.407798964287458</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>24.73275238599933</v>
+        <v>24.73275238599935</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>8.158510701658873</v>
@@ -1520,7 +1520,7 @@
         <v>7.677828288754906</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>27.8559108680607</v>
+        <v>27.85591086806071</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.519342884687204</v>
+        <v>5.454954661273492</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.459215328807345</v>
+        <v>6.74495125100008</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29.03217906391642</v>
+        <v>29.0856872258988</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.315491063796753</v>
+        <v>6.449884904590736</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.29534914640288</v>
+        <v>4.335727447546938</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>23.13181222646827</v>
+        <v>23.04059589449029</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.658177361421689</v>
+        <v>6.575430530535161</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.089587783482403</v>
+        <v>6.02123952300246</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>26.62174472291344</v>
+        <v>26.52603197420802</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.22911957001369</v>
+        <v>10.23506498551776</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.30078967403654</v>
+        <v>11.48104840802897</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32.88840783439704</v>
+        <v>33.1583565926008</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.47613586977098</v>
+        <v>10.44827840113111</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.406173309205768</v>
+        <v>8.804052030576599</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.38024281619763</v>
+        <v>26.43042639200191</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.760772606490692</v>
+        <v>9.750550242377773</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.253727938481127</v>
+        <v>9.184089391758949</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>29.12691016703798</v>
+        <v>29.09434780794357</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.09016076066373029</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.348001518283799</v>
+        <v>0.3480015182837992</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1213151594020064</v>
@@ -1625,7 +1625,7 @@
         <v>0.114167523555757</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4142109253542735</v>
+        <v>0.4142109253542737</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08529057899800695</v>
+        <v>0.08471516327416861</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.09944128745712806</v>
+        <v>0.1051976351042596</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4462399775994604</v>
+        <v>0.447711026058307</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08779940964219128</v>
+        <v>0.08950052065112958</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06035658495995681</v>
+        <v>0.06022099549705193</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3187771733080339</v>
+        <v>0.3177808774143454</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0978031323536976</v>
+        <v>0.0966246479444488</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.08972953515392672</v>
+        <v>0.08823147871689525</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.390632936294692</v>
+        <v>0.3880913266501214</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1648968171279941</v>
+        <v>0.1652279832059658</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1817664438884734</v>
+        <v>0.1855478756669273</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5313378851656374</v>
+        <v>0.5372285399962689</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.149956944384323</v>
+        <v>0.1495133104145042</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1207854258843886</v>
+        <v>0.1259269896808717</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3775148115837427</v>
+        <v>0.3799688291645403</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1470205531955524</v>
+        <v>0.1470602626403321</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1394857363921918</v>
+        <v>0.1388653272368274</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4397565019651732</v>
+        <v>0.4400164301423512</v>
       </c>
     </row>
     <row r="34">
